--- a/03_report/my_inv_analysis/my_inv_analysis_20201221.xlsx
+++ b/03_report/my_inv_analysis/my_inv_analysis_20201221.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="analysis" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="month_end_closing" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -516,28 +517,28 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>6021091.67</v>
+        <v>6174673.21</v>
       </c>
       <c r="G2" t="n">
-        <v>5435870.74</v>
+        <v>5591252.279999999</v>
       </c>
       <c r="H2" t="n">
-        <v>4909616.57</v>
+        <v>4929830.43</v>
       </c>
       <c r="I2" t="n">
-        <v>4774448.89</v>
+        <v>4929830.43</v>
       </c>
       <c r="J2" t="n">
         <v>661421.85</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3399837046890436</v>
+        <v>0.3477055935750472</v>
       </c>
       <c r="L2" t="n">
-        <v>1246642.78</v>
+        <v>1244842.78</v>
       </c>
       <c r="M2" t="n">
-        <v>25.3919</v>
+        <v>25.2512</v>
       </c>
     </row>
     <row r="3">
@@ -555,22 +556,22 @@
         <v>1.149</v>
       </c>
       <c r="D3" t="n">
-        <v>1.0444</v>
+        <v>1.047</v>
       </c>
       <c r="E3" t="n">
-        <v>608392.42</v>
+        <v>623997.8199999999</v>
       </c>
       <c r="F3" t="n">
-        <v>699042.89</v>
+        <v>716973.5</v>
       </c>
       <c r="G3" t="n">
-        <v>635378</v>
+        <v>653308.6</v>
       </c>
       <c r="H3" t="n">
-        <v>635378</v>
+        <v>653308.6</v>
       </c>
       <c r="I3" t="n">
-        <v>635378</v>
+        <v>653308.6</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -579,10 +580,10 @@
         <v>0.2896825396825397</v>
       </c>
       <c r="L3" t="n">
-        <v>63664.89</v>
+        <v>63664.9</v>
       </c>
       <c r="M3" t="n">
-        <v>10.02</v>
+        <v>9.744999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -600,22 +601,22 @@
         <v>1.2838</v>
       </c>
       <c r="D4" t="n">
-        <v>1.0308</v>
+        <v>1.0361</v>
       </c>
       <c r="E4" t="n">
-        <v>503916.35</v>
+        <v>514793.75</v>
       </c>
       <c r="F4" t="n">
-        <v>646927.8100000001</v>
+        <v>660892.22</v>
       </c>
       <c r="G4" t="n">
-        <v>519432.3</v>
+        <v>533396.7</v>
       </c>
       <c r="H4" t="n">
-        <v>519432.3</v>
+        <v>533396.7</v>
       </c>
       <c r="I4" t="n">
-        <v>519432.3</v>
+        <v>533396.7</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -624,10 +625,10 @@
         <v>0.2896825396825397</v>
       </c>
       <c r="L4" t="n">
-        <v>127495.51</v>
+        <v>127495.52</v>
       </c>
       <c r="M4" t="n">
-        <v>24.5452</v>
+        <v>23.9026</v>
       </c>
     </row>
     <row r="5">
@@ -645,28 +646,28 @@
         <v>1.2731</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7655</v>
+        <v>0.778</v>
       </c>
       <c r="E5" t="n">
-        <v>492586.28</v>
+        <v>504976.51</v>
       </c>
       <c r="F5" t="n">
-        <v>627111.59</v>
+        <v>642885.59</v>
       </c>
       <c r="G5" t="n">
-        <v>480892</v>
+        <v>496666</v>
       </c>
       <c r="H5" t="n">
         <v>480892</v>
       </c>
       <c r="I5" t="n">
-        <v>377097.1</v>
+        <v>392871.1</v>
       </c>
       <c r="J5" t="n">
         <v>103794.9</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3522071195010753</v>
+        <v>0.3617091540139231</v>
       </c>
       <c r="L5" t="n">
         <v>250014.49</v>
@@ -690,31 +691,31 @@
         <v>2.6221</v>
       </c>
       <c r="D6" t="n">
-        <v>2.3766</v>
+        <v>2.3908</v>
       </c>
       <c r="E6" t="n">
-        <v>180551.72</v>
+        <v>191588.52</v>
       </c>
       <c r="F6" t="n">
-        <v>473424.67</v>
+        <v>502364.26</v>
       </c>
       <c r="G6" t="n">
-        <v>827955.9</v>
+        <v>856895.5</v>
       </c>
       <c r="H6" t="n">
         <v>696985</v>
       </c>
       <c r="I6" t="n">
-        <v>429102.27</v>
+        <v>458041.87</v>
       </c>
       <c r="J6" t="n">
         <v>398853.63</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5098894529396513</v>
+        <v>0.5219173973364415</v>
       </c>
       <c r="L6" t="n">
-        <v>44322.4</v>
+        <v>44322.39</v>
       </c>
       <c r="M6" t="n">
         <v>6.3592</v>
@@ -735,22 +736,22 @@
         <v>0.8751</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6259</v>
+        <v>0.6315</v>
       </c>
       <c r="E7" t="n">
-        <v>500738.78</v>
+        <v>512337.8</v>
       </c>
       <c r="F7" t="n">
-        <v>438196.51</v>
+        <v>448346.81</v>
       </c>
       <c r="G7" t="n">
-        <v>313407.4</v>
+        <v>323557.7</v>
       </c>
       <c r="H7" t="n">
-        <v>313407.4</v>
+        <v>323557.7</v>
       </c>
       <c r="I7" t="n">
-        <v>313407.4</v>
+        <v>323557.7</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -762,7 +763,7 @@
         <v>124789.11</v>
       </c>
       <c r="M7" t="n">
-        <v>39.8169</v>
+        <v>38.5678</v>
       </c>
     </row>
     <row r="8">
@@ -780,22 +781,22 @@
         <v>3.5185</v>
       </c>
       <c r="D8" t="n">
-        <v>2.3276</v>
+        <v>2.3549</v>
       </c>
       <c r="E8" t="n">
-        <v>94044.45</v>
+        <v>96246.7</v>
       </c>
       <c r="F8" t="n">
-        <v>330895.4</v>
+        <v>338644.01</v>
       </c>
       <c r="G8" t="n">
-        <v>218901</v>
+        <v>226649.6</v>
       </c>
       <c r="H8" t="n">
-        <v>218901</v>
+        <v>226649.6</v>
       </c>
       <c r="I8" t="n">
-        <v>218901</v>
+        <v>226649.6</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -804,10 +805,10 @@
         <v>0.2896825396825397</v>
       </c>
       <c r="L8" t="n">
-        <v>111994.4</v>
+        <v>111994.41</v>
       </c>
       <c r="M8" t="n">
-        <v>51.1621</v>
+        <v>49.413</v>
       </c>
     </row>
     <row r="9">
@@ -825,22 +826,22 @@
         <v>3.762</v>
       </c>
       <c r="D9" t="n">
-        <v>2.4714</v>
+        <v>2.4883</v>
       </c>
       <c r="E9" t="n">
-        <v>86793.37</v>
+        <v>87940.31</v>
       </c>
       <c r="F9" t="n">
-        <v>326516.66</v>
+        <v>330831.45</v>
       </c>
       <c r="G9" t="n">
-        <v>214505</v>
+        <v>218819.8</v>
       </c>
       <c r="H9" t="n">
-        <v>214505</v>
+        <v>218819.8</v>
       </c>
       <c r="I9" t="n">
-        <v>214505</v>
+        <v>218819.8</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -849,10 +850,10 @@
         <v>0.2896825396825397</v>
       </c>
       <c r="L9" t="n">
-        <v>112011.66</v>
+        <v>112011.65</v>
       </c>
       <c r="M9" t="n">
-        <v>52.2187</v>
+        <v>51.189</v>
       </c>
     </row>
     <row r="10">
@@ -870,22 +871,22 @@
         <v>1.9666</v>
       </c>
       <c r="D10" t="n">
-        <v>1.6577</v>
+        <v>1.662</v>
       </c>
       <c r="E10" t="n">
-        <v>144422.85</v>
+        <v>146453.77</v>
       </c>
       <c r="F10" t="n">
-        <v>284021.98</v>
+        <v>288015.98</v>
       </c>
       <c r="G10" t="n">
-        <v>239406</v>
+        <v>243400</v>
       </c>
       <c r="H10" t="n">
-        <v>239406</v>
+        <v>243400</v>
       </c>
       <c r="I10" t="n">
-        <v>239406</v>
+        <v>243400</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -897,7 +898,7 @@
         <v>44615.98</v>
       </c>
       <c r="M10" t="n">
-        <v>18.6361</v>
+        <v>18.3303</v>
       </c>
     </row>
     <row r="11">
@@ -960,22 +961,22 @@
         <v>1.1704</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9397</v>
+        <v>0.9431</v>
       </c>
       <c r="E12" t="n">
-        <v>220983.87</v>
+        <v>224231.14</v>
       </c>
       <c r="F12" t="n">
-        <v>258639.52</v>
+        <v>262440.13</v>
       </c>
       <c r="G12" t="n">
-        <v>207667</v>
+        <v>211467.6</v>
       </c>
       <c r="H12" t="n">
-        <v>207667</v>
+        <v>211467.6</v>
       </c>
       <c r="I12" t="n">
-        <v>207667</v>
+        <v>211467.6</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -984,10 +985,10 @@
         <v>0.2896825396825397</v>
       </c>
       <c r="L12" t="n">
-        <v>50972.52</v>
+        <v>50972.53</v>
       </c>
       <c r="M12" t="n">
-        <v>24.5453</v>
+        <v>24.1042</v>
       </c>
     </row>
     <row r="13">
@@ -1008,19 +1009,19 @@
         <v>0.8798</v>
       </c>
       <c r="E13" t="n">
-        <v>281144.77</v>
+        <v>281400</v>
       </c>
       <c r="F13" t="n">
-        <v>246563.96</v>
+        <v>246787.8</v>
       </c>
       <c r="G13" t="n">
-        <v>247353</v>
+        <v>247576.56</v>
       </c>
       <c r="H13" t="n">
-        <v>247353</v>
+        <v>247576.56</v>
       </c>
       <c r="I13" t="n">
-        <v>247353</v>
+        <v>247576.56</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1029,190 +1030,190 @@
         <v>0.2892234548335975</v>
       </c>
       <c r="L13" t="n">
-        <v>-789.04</v>
+        <v>-788.76</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.319</v>
+        <v>-0.3186</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>广发中证全指金融地产联接A</t>
+          <t>易方达消费行业股票</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001469</t>
+          <t>110022</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.1636</v>
+        <v>4.984</v>
       </c>
       <c r="D14" t="n">
-        <v>1.0781</v>
+        <v>1.9179</v>
       </c>
       <c r="E14" t="n">
-        <v>206672.86</v>
+        <v>49118.27</v>
       </c>
       <c r="F14" t="n">
-        <v>240484.54</v>
+        <v>244805.46</v>
       </c>
       <c r="G14" t="n">
-        <v>222821</v>
+        <v>222919.2</v>
       </c>
       <c r="H14" t="n">
-        <v>222821</v>
+        <v>185038.68</v>
       </c>
       <c r="I14" t="n">
-        <v>222821</v>
+        <v>94205.80000000002</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>128713.4</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2896825396825397</v>
+        <v>0.5504893604038605</v>
       </c>
       <c r="L14" t="n">
-        <v>17663.54</v>
+        <v>150599.66</v>
       </c>
       <c r="M14" t="n">
-        <v>7.9272</v>
+        <v>81.3882</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>易方达消费行业股票</t>
+          <t>广发中证全指金融地产联接A</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>110022</t>
+          <t>001469</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4.984</v>
+        <v>1.1636</v>
       </c>
       <c r="D15" t="n">
-        <v>1.8422</v>
+        <v>1.0786</v>
       </c>
       <c r="E15" t="n">
-        <v>47933.44</v>
+        <v>207779.68</v>
       </c>
       <c r="F15" t="n">
-        <v>238900.26</v>
+        <v>241772.44</v>
       </c>
       <c r="G15" t="n">
-        <v>217014</v>
+        <v>224108.9</v>
       </c>
       <c r="H15" t="n">
-        <v>185038.68</v>
+        <v>224108.9</v>
       </c>
       <c r="I15" t="n">
-        <v>88300.60000000001</v>
+        <v>224108.9</v>
       </c>
       <c r="J15" t="n">
-        <v>128713.4</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5412446266361243</v>
+        <v>0.2896825396825397</v>
       </c>
       <c r="L15" t="n">
-        <v>150599.66</v>
+        <v>17663.54</v>
       </c>
       <c r="M15" t="n">
-        <v>81.3882</v>
+        <v>7.8817</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>创业板</t>
+          <t>易方达安心回报债券A</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SZ159915</t>
+          <t>110027</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2.778</v>
+        <v>1.991</v>
       </c>
       <c r="D16" t="n">
-        <v>1.6205</v>
+        <v>1.6937</v>
       </c>
       <c r="E16" t="n">
-        <v>72957.11</v>
+        <v>104594.73</v>
       </c>
       <c r="F16" t="n">
-        <v>202674.85</v>
+        <v>208248.11</v>
       </c>
       <c r="G16" t="n">
-        <v>118227</v>
+        <v>177157.2</v>
       </c>
       <c r="H16" t="n">
-        <v>118227</v>
+        <v>177157.2</v>
       </c>
       <c r="I16" t="n">
-        <v>118227</v>
+        <v>177157.2</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2892234548335975</v>
+        <v>0.2896825396825397</v>
       </c>
       <c r="L16" t="n">
-        <v>84447.85000000001</v>
+        <v>31090.91</v>
       </c>
       <c r="M16" t="n">
-        <v>71.4286</v>
+        <v>17.5499</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>易方达安心回报债券A</t>
+          <t>创业板</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>110027</t>
+          <t>SZ159915</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.991</v>
+        <v>2.778</v>
       </c>
       <c r="D17" t="n">
-        <v>1.6565</v>
+        <v>1.6205</v>
       </c>
       <c r="E17" t="n">
-        <v>92953.89999999999</v>
+        <v>72800</v>
       </c>
       <c r="F17" t="n">
-        <v>185071.21</v>
+        <v>202238.4</v>
       </c>
       <c r="G17" t="n">
-        <v>153980.3</v>
+        <v>117972.4</v>
       </c>
       <c r="H17" t="n">
-        <v>153980.3</v>
+        <v>117972.4</v>
       </c>
       <c r="I17" t="n">
-        <v>153980.3</v>
+        <v>117972.4</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2896825396825397</v>
+        <v>0.2892234548335975</v>
       </c>
       <c r="L17" t="n">
-        <v>31090.91</v>
+        <v>84266</v>
       </c>
       <c r="M17" t="n">
-        <v>20.1915</v>
+        <v>71.4286</v>
       </c>
     </row>
     <row r="18">
@@ -1233,19 +1234,19 @@
         <v>1.2144</v>
       </c>
       <c r="E18" t="n">
-        <v>142153.16</v>
+        <v>142200</v>
       </c>
       <c r="F18" t="n">
-        <v>162623.22</v>
+        <v>162676.8</v>
       </c>
       <c r="G18" t="n">
-        <v>172630.8</v>
+        <v>172687.68</v>
       </c>
       <c r="H18" t="n">
-        <v>172630.8</v>
+        <v>172687.68</v>
       </c>
       <c r="I18" t="n">
-        <v>172630.8</v>
+        <v>172687.68</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1254,7 +1255,7 @@
         <v>0.2892234548335975</v>
       </c>
       <c r="L18" t="n">
-        <v>-10007.58</v>
+        <v>-10010.88</v>
       </c>
       <c r="M18" t="n">
         <v>-5.7971</v>
@@ -1275,22 +1276,22 @@
         <v>3.513</v>
       </c>
       <c r="D19" t="n">
-        <v>2.9211</v>
+        <v>2.921</v>
       </c>
       <c r="E19" t="n">
-        <v>26262.73</v>
+        <v>26300</v>
       </c>
       <c r="F19" t="n">
-        <v>92260.97</v>
+        <v>92391.89999999999</v>
       </c>
       <c r="G19" t="n">
-        <v>76717.10000000001</v>
+        <v>76822.3</v>
       </c>
       <c r="H19" t="n">
-        <v>76717.10000000001</v>
+        <v>76822.3</v>
       </c>
       <c r="I19" t="n">
-        <v>76717.10000000001</v>
+        <v>76822.3</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1299,10 +1300,10 @@
         <v>0.2892234548335975</v>
       </c>
       <c r="L19" t="n">
-        <v>15543.87</v>
+        <v>15569.6</v>
       </c>
       <c r="M19" t="n">
-        <v>20.2613</v>
+        <v>20.267</v>
       </c>
     </row>
     <row r="20">
@@ -1365,22 +1366,22 @@
         <v>1.3171</v>
       </c>
       <c r="D21" t="n">
-        <v>1.1278</v>
+        <v>1.1314</v>
       </c>
       <c r="E21" t="n">
-        <v>55940.21</v>
+        <v>57016.21</v>
       </c>
       <c r="F21" t="n">
-        <v>73678.85000000001</v>
+        <v>75096.05</v>
       </c>
       <c r="G21" t="n">
-        <v>63090</v>
+        <v>64507.2</v>
       </c>
       <c r="H21" t="n">
-        <v>63090</v>
+        <v>64507.2</v>
       </c>
       <c r="I21" t="n">
-        <v>63090</v>
+        <v>64507.2</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1392,7 +1393,7 @@
         <v>10588.85</v>
       </c>
       <c r="M21" t="n">
-        <v>16.7837</v>
+        <v>16.415</v>
       </c>
     </row>
     <row r="22">
@@ -1407,25 +1408,25 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1.347</v>
+        <v>1.309</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9748</v>
+        <v>1.0481</v>
       </c>
       <c r="E22" t="n">
-        <v>41946.89</v>
+        <v>53744.06</v>
       </c>
       <c r="F22" t="n">
-        <v>56502.46</v>
+        <v>70350.97</v>
       </c>
       <c r="G22" t="n">
-        <v>40889</v>
+        <v>56331.5</v>
       </c>
       <c r="H22" t="n">
-        <v>40889</v>
+        <v>56331.5</v>
       </c>
       <c r="I22" t="n">
-        <v>40889</v>
+        <v>56331.5</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1434,10 +1435,10 @@
         <v>0.2896825396825397</v>
       </c>
       <c r="L22" t="n">
-        <v>15613.46</v>
+        <v>14019.47</v>
       </c>
       <c r="M22" t="n">
-        <v>38.185</v>
+        <v>24.8874</v>
       </c>
     </row>
     <row r="23">
@@ -1455,22 +1456,22 @@
         <v>2.18</v>
       </c>
       <c r="D23" t="n">
-        <v>1.7655</v>
+        <v>1.7805</v>
       </c>
       <c r="E23" t="n">
-        <v>19368.73</v>
+        <v>20094.83</v>
       </c>
       <c r="F23" t="n">
-        <v>42223.83</v>
+        <v>43806.73</v>
       </c>
       <c r="G23" t="n">
-        <v>34195</v>
+        <v>35777.9</v>
       </c>
       <c r="H23" t="n">
-        <v>34195</v>
+        <v>35777.9</v>
       </c>
       <c r="I23" t="n">
-        <v>34195</v>
+        <v>35777.9</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1482,7 +1483,7 @@
         <v>8028.83</v>
       </c>
       <c r="M23" t="n">
-        <v>23.4795</v>
+        <v>22.4408</v>
       </c>
     </row>
     <row r="24">
@@ -1503,19 +1504,19 @@
         <v>1.5175</v>
       </c>
       <c r="E24" t="n">
-        <v>20751.89</v>
+        <v>20800</v>
       </c>
       <c r="F24" t="n">
-        <v>28948.89</v>
+        <v>29016</v>
       </c>
       <c r="G24" t="n">
-        <v>31491</v>
+        <v>31564</v>
       </c>
       <c r="H24" t="n">
-        <v>31491</v>
+        <v>31564</v>
       </c>
       <c r="I24" t="n">
-        <v>31491</v>
+        <v>31564</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1524,7 +1525,7 @@
         <v>0.2892234548335975</v>
       </c>
       <c r="L24" t="n">
-        <v>-2542.11</v>
+        <v>-2548</v>
       </c>
       <c r="M24" t="n">
         <v>-8.0725</v>
@@ -1548,19 +1549,19 @@
         <v>0.965</v>
       </c>
       <c r="E25" t="n">
-        <v>17061.14</v>
+        <v>16800</v>
       </c>
       <c r="F25" t="n">
-        <v>19142.6</v>
+        <v>18849.6</v>
       </c>
       <c r="G25" t="n">
-        <v>16464</v>
+        <v>16212</v>
       </c>
       <c r="H25" t="n">
-        <v>16464</v>
+        <v>16212</v>
       </c>
       <c r="I25" t="n">
-        <v>16464</v>
+        <v>16212</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -1569,7 +1570,7 @@
         <v>0.2892234548335975</v>
       </c>
       <c r="L25" t="n">
-        <v>2678.6</v>
+        <v>2637.6</v>
       </c>
       <c r="M25" t="n">
         <v>16.2694</v>
@@ -1619,6 +1620,1163 @@
       <c r="M26" t="n">
         <v>0.1997</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>期间</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>记录日期</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>项目</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>分类1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>分类2</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>现值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2020/12</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2020/12/21</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>fund_external</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>716973.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2020/12</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2020/12/21</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发养老指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>000968</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>fund_external</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>660892.22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2020/12</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020/12/21</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发医药卫生联接A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>001180</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>fund_external</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>642885.59</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2020/12</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020/12/21</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>fund_external</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>502364.26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2020/12</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020/12/21</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发中证环保ETF联接A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>001064</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>fund_external</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>448346.81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2020/12</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020/12/21</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>310318</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>fund_external</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>338644.01</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2020/12</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020/12/21</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>519069</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>fund_external</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>330831.45</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2020/12</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020/12/21</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>fund_external</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>288015.98</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2020/12</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020/12/21</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘创业板ETF联接基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>001593</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>fund_external</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>265444</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2020/12</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2020/12/21</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴全可转债混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>340001</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>fund_external</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>convertible_bond</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>262440.13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2020/12</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2020/12/21</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>传媒ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SH512980</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>fund_internal</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>246787.8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2020/12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2020/12/21</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达消费行业股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>110022</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>fund_external</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>244805.46</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2020/12</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2020/12/21</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发中证全指金融地产联接A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>001469</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>fund_external</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>241772.44</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2020/12</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2020/12/21</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达安心回报债券A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>110027</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>fund_external</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>convertible_bond</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>208248.11</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2020/12</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2020/12/21</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>SZ159915</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>fund_internal</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>202238.4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2020/12</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2020/12/21</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>H股ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>SH510900</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>fund_internal</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>oversea</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>162676.8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2020/12</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2020/12/21</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>上证50ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>SH510050</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>fund_internal</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>92391.89999999999</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2020/12</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2020/12/21</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华宝油气</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>SZ162411</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>fund_internal</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>oversea</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>81795</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2020/12</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2020/12/21</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达证券公司分级</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>fund_external</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>75096.05</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2020/12</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2020/12/21</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安德国30(DAX)联接</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>000614</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>fund_external</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>oversea</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>70350.97</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2020/12</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2020/12/21</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国中证500指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>fund_external</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>43806.73</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2020/12</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2020/12/21</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>恒生ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>SZ159920</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>fund_internal</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>29016</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2020/12</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2020/12/21</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>德国30ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>SH513030</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>fund_internal</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>oversea</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>18849.6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2020/12</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2020/12/21</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发中证100ETF联接C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>007136</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>fund_external</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2020/12</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2020/12/21</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>余额宝/微信</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>fix_return</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>fix_return</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2020/12</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2020/12/21</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰证券-现金余额</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>fix_return</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>fix_return</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2020/12</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2020/12/21</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招行-货币基金/招行余额</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>fix_return</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>fix_return</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2020/12</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2020/12/21</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>香港AIA保险</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>insurance</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2020/12</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2020/12/21</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中信信托100万</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>fix_return</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>trust</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2020/12</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2020/12/21</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>天弘500增强私募</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2020/12</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2020/12/21</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>SAP德国股票-OwnSAP</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>oversea</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2020/12</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2020/12/21</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商股票+现金</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2020/12</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2020/12/21</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>建信理财佳</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>bond</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>bond</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
